--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H2">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I2">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J2">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4376248268326</v>
+        <v>29.546424</v>
       </c>
       <c r="N2">
-        <v>11.4376248268326</v>
+        <v>88.63927200000001</v>
       </c>
       <c r="O2">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610835</v>
       </c>
       <c r="P2">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610834</v>
       </c>
       <c r="Q2">
-        <v>153.8136393767815</v>
+        <v>462.968836789608</v>
       </c>
       <c r="R2">
-        <v>153.8136393767815</v>
+        <v>4166.719531106472</v>
       </c>
       <c r="S2">
-        <v>0.2238967882702479</v>
+        <v>0.2643065026631087</v>
       </c>
       <c r="T2">
-        <v>0.2238967882702479</v>
+        <v>0.2643065026631087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H3">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I3">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J3">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.48983665839063</v>
+        <v>1.672785333333334</v>
       </c>
       <c r="N3">
-        <v>1.48983665839063</v>
+        <v>5.018356000000001</v>
       </c>
       <c r="O3">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="P3">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="Q3">
-        <v>20.03538339239841</v>
+        <v>26.21120850266178</v>
       </c>
       <c r="R3">
-        <v>20.03538339239841</v>
+        <v>235.900876523956</v>
       </c>
       <c r="S3">
-        <v>0.02916424064534694</v>
+        <v>0.01496384270257125</v>
       </c>
       <c r="T3">
-        <v>0.02916424064534694</v>
+        <v>0.01496384270257125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H4">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I4">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J4">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.15370240762441</v>
+        <v>1.489401</v>
       </c>
       <c r="N4">
-        <v>1.15370240762441</v>
+        <v>4.468203</v>
       </c>
       <c r="O4">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="P4">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="Q4">
-        <v>15.51503644866519</v>
+        <v>23.337722645667</v>
       </c>
       <c r="R4">
-        <v>15.51503644866519</v>
+        <v>210.039503811003</v>
       </c>
       <c r="S4">
-        <v>0.02258425744834395</v>
+        <v>0.01332338456162874</v>
       </c>
       <c r="T4">
-        <v>0.02258425744834395</v>
+        <v>0.01332338456162874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H5">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I5">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J5">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4376248268326</v>
+        <v>29.546424</v>
       </c>
       <c r="N5">
-        <v>11.4376248268326</v>
+        <v>88.63927200000001</v>
       </c>
       <c r="O5">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610835</v>
       </c>
       <c r="P5">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610834</v>
       </c>
       <c r="Q5">
-        <v>187.4489466625778</v>
+        <v>486.8296227216721</v>
       </c>
       <c r="R5">
-        <v>187.4489466625778</v>
+        <v>4381.466604495049</v>
       </c>
       <c r="S5">
-        <v>0.2728575781214336</v>
+        <v>0.2779285013363433</v>
       </c>
       <c r="T5">
-        <v>0.2728575781214336</v>
+        <v>0.2779285013363432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H6">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I6">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J6">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.48983665839063</v>
+        <v>1.672785333333334</v>
       </c>
       <c r="N6">
-        <v>1.48983665839063</v>
+        <v>5.018356000000001</v>
       </c>
       <c r="O6">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="P6">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="Q6">
-        <v>24.41663514434016</v>
+        <v>27.56209863911156</v>
       </c>
       <c r="R6">
-        <v>24.41663514434016</v>
+        <v>248.0588877520041</v>
       </c>
       <c r="S6">
-        <v>0.03554175176749279</v>
+        <v>0.01573505886027862</v>
       </c>
       <c r="T6">
-        <v>0.03554175176749279</v>
+        <v>0.01573505886027862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H7">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I7">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J7">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.15370240762441</v>
+        <v>1.489401</v>
       </c>
       <c r="N7">
-        <v>1.15370240762441</v>
+        <v>4.468203</v>
       </c>
       <c r="O7">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="P7">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="Q7">
-        <v>18.90779810891596</v>
+        <v>24.54051721830301</v>
       </c>
       <c r="R7">
-        <v>18.90779810891596</v>
+        <v>220.864654964727</v>
       </c>
       <c r="S7">
-        <v>0.02752288605224687</v>
+        <v>0.01401005373167498</v>
       </c>
       <c r="T7">
-        <v>0.02752288605224687</v>
+        <v>0.01401005373167497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H8">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I8">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J8">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.4376248268326</v>
+        <v>29.546424</v>
       </c>
       <c r="N8">
-        <v>11.4376248268326</v>
+        <v>88.63927200000001</v>
       </c>
       <c r="O8">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610835</v>
       </c>
       <c r="P8">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610834</v>
       </c>
       <c r="Q8">
-        <v>216.7503638853456</v>
+        <v>632.49394608684</v>
       </c>
       <c r="R8">
-        <v>216.7503638853456</v>
+        <v>5692.44551478156</v>
       </c>
       <c r="S8">
-        <v>0.3155097982660572</v>
+        <v>0.3610875064616315</v>
       </c>
       <c r="T8">
-        <v>0.3155097982660572</v>
+        <v>0.3610875064616313</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H9">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I9">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J9">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.48983665839063</v>
+        <v>1.672785333333334</v>
       </c>
       <c r="N9">
-        <v>1.48983665839063</v>
+        <v>5.018356000000001</v>
       </c>
       <c r="O9">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="P9">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="Q9">
-        <v>28.23336511950643</v>
+        <v>35.80895598182001</v>
       </c>
       <c r="R9">
-        <v>28.23336511950643</v>
+        <v>322.28060383638</v>
       </c>
       <c r="S9">
-        <v>0.04109752423732687</v>
+        <v>0.02044314685455412</v>
       </c>
       <c r="T9">
-        <v>0.04109752423732687</v>
+        <v>0.02044314685455412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H10">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I10">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J10">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.15370240762441</v>
+        <v>1.489401</v>
       </c>
       <c r="N10">
-        <v>1.15370240762441</v>
+        <v>4.468203</v>
       </c>
       <c r="O10">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="P10">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="Q10">
-        <v>21.86340437407408</v>
+        <v>31.883286985785</v>
       </c>
       <c r="R10">
-        <v>21.86340437407408</v>
+        <v>286.949582872065</v>
       </c>
       <c r="S10">
-        <v>0.03182517519150391</v>
+        <v>0.01820200282820893</v>
       </c>
       <c r="T10">
-        <v>0.03182517519150391</v>
+        <v>0.01820200282820893</v>
       </c>
     </row>
   </sheetData>
